--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H2">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N2">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q2">
-        <v>38.2681984246043</v>
+        <v>38.84470815374089</v>
       </c>
       <c r="R2">
-        <v>38.2681984246043</v>
+        <v>349.602373383668</v>
       </c>
       <c r="S2">
-        <v>0.148632098721963</v>
+        <v>0.1457426584166725</v>
       </c>
       <c r="T2">
-        <v>0.148632098721963</v>
+        <v>0.1457426584166725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H3">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q3">
-        <v>36.40833491675451</v>
+        <v>37.68464150048089</v>
       </c>
       <c r="R3">
-        <v>36.40833491675451</v>
+        <v>339.161773504328</v>
       </c>
       <c r="S3">
-        <v>0.1414084658390945</v>
+        <v>0.1413901685661248</v>
       </c>
       <c r="T3">
-        <v>0.1414084658390945</v>
+        <v>0.1413901685661248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H4">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N4">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q4">
-        <v>13.57436371120698</v>
+        <v>14.15972044752511</v>
       </c>
       <c r="R4">
-        <v>13.57436371120698</v>
+        <v>127.437484027726</v>
       </c>
       <c r="S4">
-        <v>0.05272226679776892</v>
+        <v>0.05312629180509072</v>
       </c>
       <c r="T4">
-        <v>0.05272226679776892</v>
+        <v>0.05312629180509072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H5">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I5">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J5">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N5">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q5">
-        <v>46.89023737626842</v>
+        <v>47.64535338902422</v>
       </c>
       <c r="R5">
-        <v>46.89023737626842</v>
+        <v>428.808180501218</v>
       </c>
       <c r="S5">
-        <v>0.1821197411353673</v>
+        <v>0.1787620706695791</v>
       </c>
       <c r="T5">
-        <v>0.1821197411353673</v>
+        <v>0.1787620706695791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H6">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I6">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J6">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N6">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q6">
-        <v>44.61133622699285</v>
+        <v>46.22246238851423</v>
       </c>
       <c r="R6">
-        <v>44.61133622699285</v>
+        <v>416.002161496628</v>
       </c>
       <c r="S6">
-        <v>0.1732685833975904</v>
+        <v>0.1734234820455965</v>
       </c>
       <c r="T6">
-        <v>0.1732685833975904</v>
+        <v>0.1734234820455965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H7">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J7">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N7">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q7">
-        <v>16.63274371027256</v>
+        <v>17.36774239471678</v>
       </c>
       <c r="R7">
-        <v>16.63274371027256</v>
+        <v>156.309681552451</v>
       </c>
       <c r="S7">
-        <v>0.06460088812471718</v>
+        <v>0.06516256827786729</v>
       </c>
       <c r="T7">
-        <v>0.06460088812471718</v>
+        <v>0.06516256827786727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H8">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I8">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J8">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N8">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q8">
-        <v>6.293200968577557</v>
+        <v>6.755052691515112</v>
       </c>
       <c r="R8">
-        <v>6.293200968577557</v>
+        <v>60.79547422363601</v>
       </c>
       <c r="S8">
-        <v>0.0244425320800412</v>
+        <v>0.0253444905058786</v>
       </c>
       <c r="T8">
-        <v>0.0244425320800412</v>
+        <v>0.0253444905058786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H9">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I9">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J9">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N9">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q9">
-        <v>5.987346621865037</v>
+        <v>6.553318356495113</v>
       </c>
       <c r="R9">
-        <v>5.987346621865037</v>
+        <v>58.97986520845601</v>
       </c>
       <c r="S9">
-        <v>0.02325460645702863</v>
+        <v>0.02458759723322563</v>
       </c>
       <c r="T9">
-        <v>0.02325460645702863</v>
+        <v>0.02458759723322563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H10">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I10">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J10">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N10">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q10">
-        <v>2.232302600382347</v>
+        <v>2.462360055366889</v>
       </c>
       <c r="R10">
-        <v>2.232302600382347</v>
+        <v>22.161240498302</v>
       </c>
       <c r="S10">
-        <v>0.008670170902636489</v>
+        <v>0.009238604626088165</v>
       </c>
       <c r="T10">
-        <v>0.008670170902636489</v>
+        <v>0.009238604626088165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H11">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I11">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J11">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N11">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q11">
-        <v>8.026521451853045</v>
+        <v>8.049878687394221</v>
       </c>
       <c r="R11">
-        <v>8.026521451853045</v>
+        <v>72.448908186548</v>
       </c>
       <c r="S11">
-        <v>0.03117467709320605</v>
+        <v>0.03020258808971289</v>
       </c>
       <c r="T11">
-        <v>0.03117467709320605</v>
+        <v>0.0302025880897129</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H12">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I12">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J12">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N12">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q12">
-        <v>7.636426413209233</v>
+        <v>7.809475392534222</v>
       </c>
       <c r="R12">
-        <v>7.636426413209233</v>
+        <v>70.28527853280799</v>
       </c>
       <c r="S12">
-        <v>0.02965956410953926</v>
+        <v>0.02930061155416131</v>
       </c>
       <c r="T12">
-        <v>0.02965956410953926</v>
+        <v>0.02930061155416131</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H13">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I13">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J13">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N13">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O13">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P13">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q13">
-        <v>2.847140079978431</v>
+        <v>2.934351608431777</v>
       </c>
       <c r="R13">
-        <v>2.847140079978431</v>
+        <v>26.40916447588599</v>
       </c>
       <c r="S13">
-        <v>0.01105817422464636</v>
+        <v>0.01100948428932657</v>
       </c>
       <c r="T13">
-        <v>0.01105817422464636</v>
+        <v>0.01100948428932657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H14">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I14">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J14">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N14">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O14">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P14">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q14">
-        <v>12.16813164302172</v>
+        <v>12.86714413469067</v>
       </c>
       <c r="R14">
-        <v>12.16813164302172</v>
+        <v>115.804297212216</v>
       </c>
       <c r="S14">
-        <v>0.04726051965029621</v>
+        <v>0.04827663487644752</v>
       </c>
       <c r="T14">
-        <v>0.04726051965029621</v>
+        <v>0.04827663487644752</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H15">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I15">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J15">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N15">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O15">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P15">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q15">
-        <v>11.57675120356476</v>
+        <v>12.48287699657067</v>
       </c>
       <c r="R15">
-        <v>11.57675120356476</v>
+        <v>112.345892969136</v>
       </c>
       <c r="S15">
-        <v>0.04496362250127624</v>
+        <v>0.04683489115088983</v>
       </c>
       <c r="T15">
-        <v>0.04496362250127624</v>
+        <v>0.04683489115088984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H16">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I16">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J16">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N16">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O16">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P16">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q16">
-        <v>4.316237800785141</v>
+        <v>4.690347091401333</v>
       </c>
       <c r="R16">
-        <v>4.316237800785141</v>
+        <v>42.213123822612</v>
       </c>
       <c r="S16">
-        <v>0.01676408896482821</v>
+        <v>0.01759785789333846</v>
       </c>
       <c r="T16">
-        <v>0.01676408896482821</v>
+        <v>0.01759785789333846</v>
       </c>
     </row>
   </sheetData>
